--- a/analyses/T7-incubations/unipept/GO/organizing/MN_GO.xlsx
+++ b/analyses/T7-incubations/unipept/GO/organizing/MN_GO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="organizingCC" sheetId="1" state="visible" r:id="rId2"/>
@@ -6730,8 +6730,8 @@
   </sheetPr>
   <dimension ref="A1:L344"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15895,8 +15895,8 @@
   </sheetPr>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K31" activeCellId="0" sqref="K31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M26" activeCellId="0" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/analyses/T7-incubations/unipept/GO/organizing/MN_GO.xlsx
+++ b/analyses/T7-incubations/unipept/GO/organizing/MN_GO.xlsx
@@ -15896,7 +15896,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M26" activeCellId="0" sqref="M26"/>
+      <selection pane="topLeft" activeCell="N14" activeCellId="0" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/analyses/T7-incubations/unipept/GO/organizing/MN_GO.xlsx
+++ b/analyses/T7-incubations/unipept/GO/organizing/MN_GO.xlsx
@@ -4223,7 +4223,7 @@
       <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.71"/>
@@ -6403,7 +6403,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6422,7 +6422,7 @@
       <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -6715,7 +6715,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -6734,7 +6734,7 @@
       <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.71"/>
@@ -15880,7 +15880,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -15896,10 +15896,10 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N14" activeCellId="0" sqref="N14"/>
+      <selection pane="topLeft" activeCell="N20" activeCellId="0" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -16933,7 +16933,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
